--- a/va_facility_data_2025-02-20/Daytona Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Daytona%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Daytona Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Daytona%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R43d78766b6a447aaabf5a7998ced3da8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R243b099e87d145839208bf4aed4d6226"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc722ba9f273449f88a25a9eb1ff4d1a9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0b7c7935ee7c4ef7ab54eea9498a998c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcb232c4d58d44ebdb357a06781a70156"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5972e135e1544810a9368dcb80ea6bb1"/>
   </x:sheets>
 </x:workbook>
 </file>
